--- a/V1.4/data.xlsx
+++ b/V1.4/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\edetail-tool\V1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79ADEE3-58CE-45CB-B19E-85594EFEB250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B923B029-0ADE-4CA0-ACEF-12247AAEFEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1164" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -441,18 +440,18 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -480,7 +479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -491,7 +490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
